--- a/data/workbook1.xlsx
+++ b/data/workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
   <si>
     <t>Region sends troops to rescue Central African regime</t>
   </si>
@@ -520,6 +520,210 @@
   </si>
   <si>
     <t>2004, 2005, 2006</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Registered Persons, Number of Camps, Number of Schools, Number of Pupils, Number of Primary Health-Care Facilities, Number of Annual Patient Visits, Number of Special Hardship Causes, Number of Microfinance Loans</t>
+  </si>
+  <si>
+    <t>UNRWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camp / District </t>
+  </si>
+  <si>
+    <t>Number of People Vaccinated against yellow fever</t>
+  </si>
+  <si>
+    <t>January, 2013</t>
+  </si>
+  <si>
+    <t>Ministry of Health</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>DR of the Congo</t>
+  </si>
+  <si>
+    <t>UNHCR, OXFAM</t>
+  </si>
+  <si>
+    <t>Refugee Numbers, Number of Damaged Houses</t>
+  </si>
+  <si>
+    <t>Camp / Village</t>
+  </si>
+  <si>
+    <t>Number of People Killed</t>
+  </si>
+  <si>
+    <t>Number of People Killed by Earthquake</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Number of People Affected</t>
+  </si>
+  <si>
+    <t>November, 2013</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Nunmber of People Killed</t>
+  </si>
+  <si>
+    <t>Village / City</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Number of People Dead, Number of Refugees, Number of People Applying for Asylum</t>
+  </si>
+  <si>
+    <t>United Nations, European Union</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Famine Early Warning Systems Network (FEWS NET)</t>
+  </si>
+  <si>
+    <t>Price of Food Supplies</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Number of Refugees</t>
+  </si>
+  <si>
+    <t>Number of People reached by WFP</t>
+  </si>
+  <si>
+    <t>WFP</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Rainfall Data, Population, 3W, Functionality of boreholes</t>
+  </si>
+  <si>
+    <t>NMA, CSA, FDRE, World Bank, OWWDSE, OCHA, IRC</t>
+  </si>
+  <si>
+    <t>2005, 2007, 2009, 2012</t>
+  </si>
+  <si>
+    <t>Number of Refugees, Amount Pledged, Number of Food Items Distributed</t>
+  </si>
+  <si>
+    <t>UNHCR, FTS, WFP</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>UNAMID</t>
+  </si>
+  <si>
+    <t>Number of Troops, Number of Yellow Fever Cases</t>
+  </si>
+  <si>
+    <t>Danish Refugee Council</t>
+  </si>
+  <si>
+    <t>Number of Refugees (per gender)</t>
+  </si>
+  <si>
+    <t>Agricultural Production</t>
+  </si>
+  <si>
+    <t>FAO, GIEWS, Food Security Analysis Unit</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Population, Internally Displaced People</t>
+  </si>
+  <si>
+    <t>UN sources, OCHA</t>
+  </si>
+  <si>
+    <t>Number of Migrants</t>
+  </si>
+  <si>
+    <t>February, 2013</t>
+  </si>
+  <si>
+    <t>IOM</t>
+  </si>
+  <si>
+    <t>Number of Refugees, Number of Internally Displaced People</t>
+  </si>
+  <si>
+    <t>BPBD Indonesia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Local / City</t>
+  </si>
+  <si>
+    <t>Number of Houses Inundated</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>March, 2013</t>
+  </si>
+  <si>
+    <t>Asia-Pacific</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>GDACS, PDC, Media, ICG,USGS,IRI, NDRRMC, UNISYS, FAO</t>
+  </si>
+  <si>
+    <t>Number of People Affected, Areas Affected, Number of People Killed</t>
   </si>
 </sst>
 </file>
@@ -930,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -993,11 +1197,17 @@
       <c r="F2" t="s">
         <v>158</v>
       </c>
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
       <c r="H2" t="s">
         <v>159</v>
       </c>
       <c r="I2" t="s">
         <v>160</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16">
@@ -1048,6 +1258,18 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="16">
       <c r="A5" s="1">
@@ -1065,6 +1287,21 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="16">
       <c r="A6" s="1">
@@ -1082,6 +1319,18 @@
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6">
+        <v>2013</v>
+      </c>
+      <c r="I6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="16">
       <c r="A7" s="1">
@@ -1099,6 +1348,9 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="16">
       <c r="A8" s="1">
@@ -1116,6 +1368,9 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="16">
       <c r="A9" s="1">
@@ -1150,6 +1405,21 @@
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="16">
       <c r="A11" s="1">
@@ -1167,6 +1437,18 @@
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="F11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11">
+        <v>2010</v>
+      </c>
+      <c r="I11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16">
       <c r="A12" s="1">
@@ -1184,6 +1466,18 @@
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="F12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="16">
       <c r="A13" s="1">
@@ -1218,6 +1512,18 @@
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="16">
       <c r="A15" s="1">
@@ -1235,6 +1541,9 @@
       <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="I15" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="16">
       <c r="A16" s="1">
@@ -1252,8 +1561,11 @@
       <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
+      <c r="I16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="1">
         <v>1752</v>
       </c>
@@ -1269,8 +1581,11 @@
       <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16">
+      <c r="I17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="1">
         <v>1777</v>
       </c>
@@ -1286,8 +1601,23 @@
       <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16">
+      <c r="F18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="1">
         <v>1972</v>
       </c>
@@ -1303,8 +1633,11 @@
       <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16">
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="1">
         <v>2192</v>
       </c>
@@ -1320,8 +1653,11 @@
       <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16">
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="1">
         <v>2412</v>
       </c>
@@ -1337,8 +1673,23 @@
       <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16">
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21">
+        <v>2012</v>
+      </c>
+      <c r="H21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="1">
         <v>2632</v>
       </c>
@@ -1354,8 +1705,17 @@
       <c r="E22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16">
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="1">
         <v>2852</v>
       </c>
@@ -1371,8 +1731,23 @@
       <c r="E23" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16">
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>2012</v>
+      </c>
+      <c r="H23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="1">
         <v>3072</v>
       </c>
@@ -1388,8 +1763,11 @@
       <c r="E24" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16">
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="1">
         <v>3292</v>
       </c>
@@ -1406,7 +1784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16">
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="1">
         <v>3512</v>
       </c>
@@ -1422,8 +1800,23 @@
       <c r="E26" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16">
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="1">
         <v>3732</v>
       </c>
@@ -1439,8 +1832,23 @@
       <c r="E27" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16">
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="1">
         <v>3952</v>
       </c>
@@ -1457,7 +1865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16">
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="1">
         <v>4172</v>
       </c>
@@ -1473,8 +1881,20 @@
       <c r="E29" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="16">
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29">
+        <v>2013</v>
+      </c>
+      <c r="I29" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="1">
         <v>4392</v>
       </c>
@@ -1490,8 +1910,23 @@
       <c r="E30" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16">
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16">
       <c r="A31" s="1">
         <v>4612</v>
       </c>
@@ -1508,7 +1943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16">
+    <row r="32" spans="1:10" ht="16">
       <c r="A32" s="1">
         <v>4832</v>
       </c>
@@ -1524,8 +1959,23 @@
       <c r="E32" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="16">
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16">
       <c r="A33" s="1">
         <v>5052</v>
       </c>
@@ -1541,8 +1991,23 @@
       <c r="E33" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="16">
+      <c r="F33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16">
       <c r="A34" s="1">
         <v>5272</v>
       </c>
@@ -1559,7 +2024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16">
+    <row r="35" spans="1:10" ht="16">
       <c r="A35" s="1">
         <v>5492</v>
       </c>
@@ -1575,8 +2040,23 @@
       <c r="E35" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16">
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35">
+        <v>2013</v>
+      </c>
+      <c r="H35" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16">
       <c r="A36" s="1">
         <v>5712</v>
       </c>
@@ -1593,7 +2073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16">
+    <row r="37" spans="1:10" ht="16">
       <c r="A37" s="1">
         <v>5932</v>
       </c>
@@ -1609,8 +2089,23 @@
       <c r="E37" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="16">
+      <c r="F37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" t="s">
+        <v>222</v>
+      </c>
+      <c r="I37" t="s">
+        <v>192</v>
+      </c>
+      <c r="J37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16">
       <c r="A38" s="1">
         <v>6152</v>
       </c>
@@ -1626,8 +2121,17 @@
       <c r="E38" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="16">
+      <c r="F38" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16">
       <c r="A39" s="1">
         <v>6372</v>
       </c>
@@ -1644,7 +2148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16">
+    <row r="40" spans="1:10" ht="16">
       <c r="A40" s="1">
         <v>6592</v>
       </c>
@@ -1661,7 +2165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16">
+    <row r="41" spans="1:10" ht="16">
       <c r="A41" s="1">
         <v>6812</v>
       </c>
@@ -1677,8 +2181,23 @@
       <c r="E41" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16">
+      <c r="F41" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" t="s">
+        <v>225</v>
+      </c>
+      <c r="J41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16">
       <c r="A42" s="1">
         <v>7032</v>
       </c>
@@ -1694,8 +2213,20 @@
       <c r="E42" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="16">
+      <c r="F42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" t="s">
+        <v>221</v>
+      </c>
+      <c r="I42" t="s">
+        <v>228</v>
+      </c>
+      <c r="J42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16">
       <c r="A43" s="1">
         <v>7252</v>
       </c>
@@ -1711,8 +2242,23 @@
       <c r="E43" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="16">
+      <c r="F43" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" t="s">
+        <v>230</v>
+      </c>
+      <c r="J43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16">
       <c r="A44" s="1">
         <v>7472</v>
       </c>
@@ -1728,8 +2274,14 @@
       <c r="E44" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="16">
+      <c r="F44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16">
       <c r="A45" s="1">
         <v>7692</v>
       </c>
@@ -1746,7 +2298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16">
+    <row r="46" spans="1:10" ht="16">
       <c r="A46" s="1">
         <v>7912</v>
       </c>
@@ -1763,7 +2315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16">
+    <row r="47" spans="1:10" ht="16">
       <c r="A47" s="1">
         <v>8132</v>
       </c>
@@ -1780,7 +2332,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16">
+    <row r="48" spans="1:10" ht="16">
       <c r="A48" s="1">
         <v>8352</v>
       </c>
@@ -1797,7 +2349,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16">
+    <row r="49" spans="1:10" ht="16">
       <c r="A49" s="1">
         <v>8572</v>
       </c>
@@ -1813,8 +2365,17 @@
       <c r="E49" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="16">
+      <c r="F49" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16">
       <c r="A50" s="1">
         <v>8792</v>
       </c>
@@ -1831,7 +2392,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16">
+    <row r="51" spans="1:10" ht="16">
       <c r="A51" s="1">
         <v>9012</v>
       </c>
@@ -1848,7 +2409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16">
+    <row r="52" spans="1:10" ht="16">
       <c r="A52" s="1">
         <v>9232</v>
       </c>
@@ -1865,7 +2426,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16">
+    <row r="53" spans="1:10" ht="16">
       <c r="A53" s="1">
         <v>9452</v>
       </c>
@@ -1882,7 +2443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16">
+    <row r="54" spans="1:10" ht="16">
       <c r="A54" s="1">
         <v>9672</v>
       </c>
@@ -1899,7 +2460,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16">
+    <row r="55" spans="1:10" ht="16">
       <c r="A55" s="1">
         <v>9892</v>
       </c>
@@ -1916,7 +2477,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16">
+    <row r="56" spans="1:10" ht="16">
       <c r="A56" s="1">
         <v>10112</v>
       </c>
@@ -1933,7 +2494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16">
+    <row r="57" spans="1:10" ht="16">
       <c r="A57" s="1">
         <v>10332</v>
       </c>
@@ -1950,7 +2511,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16">
+    <row r="58" spans="1:10" ht="16">
       <c r="A58" s="1">
         <v>10552</v>
       </c>
@@ -1967,7 +2528,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16">
+    <row r="59" spans="1:10" ht="16">
       <c r="A59" s="1">
         <v>10772</v>
       </c>
@@ -1984,7 +2545,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16">
+    <row r="60" spans="1:10" ht="16">
       <c r="A60" s="1">
         <v>10992</v>
       </c>
@@ -2001,7 +2562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16">
+    <row r="61" spans="1:10" ht="16">
       <c r="A61" s="1">
         <v>11212</v>
       </c>
@@ -2018,7 +2579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16">
+    <row r="62" spans="1:10" ht="16">
       <c r="A62" s="1">
         <v>11432</v>
       </c>
@@ -2035,7 +2596,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16">
+    <row r="63" spans="1:10" ht="16">
       <c r="A63" s="1">
         <v>11652</v>
       </c>
@@ -2052,7 +2613,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16">
+    <row r="64" spans="1:10" ht="16">
       <c r="A64" s="1">
         <v>11872</v>
       </c>

--- a/data/workbook1.xlsx
+++ b/data/workbook1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="237">
   <si>
     <t>Region sends troops to rescue Central African regime</t>
   </si>
@@ -724,6 +724,15 @@
   </si>
   <si>
     <t>Number of People Affected, Areas Affected, Number of People Killed</t>
+  </si>
+  <si>
+    <t>People Affected, People Killed, Houses Affected</t>
+  </si>
+  <si>
+    <t>Government of Bolivia (Ministerio de Defensa)</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2391,6 +2400,18 @@
       <c r="E50" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="F50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" t="s">
+        <v>229</v>
+      </c>
+      <c r="I50" t="s">
+        <v>195</v>
+      </c>
+      <c r="J50" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="16">
       <c r="A51" s="1">
@@ -2441,6 +2462,21 @@
       </c>
       <c r="E53" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H53" t="s">
+        <v>235</v>
+      </c>
+      <c r="I53" t="s">
+        <v>236</v>
+      </c>
+      <c r="J53" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16">
